--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="294" uniqueCount="137">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -184,6 +184,246 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_19</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 1</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 2</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 3</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 4</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 5</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 6</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 7</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 8</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_ 9</t>
+  </si>
+  <si>
+    <t>Vapour heat transfer coefficient (W/K m^2)_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_10</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_10</t>
   </si>
 </sst>
 </file>
@@ -229,415 +469,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
-    <col min="10" max="10" width="24.85546875" customWidth="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true"/>
-    <col min="12" max="12" width="24.85546875" customWidth="true"/>
-    <col min="13" max="13" width="24.85546875" customWidth="true"/>
-    <col min="14" max="14" width="24.85546875" customWidth="true"/>
-    <col min="15" max="15" width="24.85546875" customWidth="true"/>
-    <col min="16" max="16" width="24.85546875" customWidth="true"/>
-    <col min="17" max="17" width="24.85546875" customWidth="true"/>
-    <col min="18" max="18" width="24.85546875" customWidth="true"/>
-    <col min="19" max="19" width="24.85546875" customWidth="true"/>
-    <col min="20" max="20" width="34.7109375" customWidth="true"/>
-    <col min="21" max="21" width="34.7109375" customWidth="true"/>
-    <col min="22" max="22" width="34.7109375" customWidth="true"/>
-    <col min="23" max="23" width="34.7109375" customWidth="true"/>
-    <col min="24" max="24" width="34.7109375" customWidth="true"/>
-    <col min="25" max="25" width="34.7109375" customWidth="true"/>
-    <col min="26" max="26" width="34.7109375" customWidth="true"/>
-    <col min="27" max="27" width="34.7109375" customWidth="true"/>
-    <col min="28" max="28" width="34.7109375" customWidth="true"/>
-    <col min="29" max="29" width="35.28515625" customWidth="true"/>
-    <col min="30" max="30" width="35.28515625" customWidth="true"/>
-    <col min="31" max="31" width="35.28515625" customWidth="true"/>
-    <col min="32" max="32" width="35.28515625" customWidth="true"/>
-    <col min="33" max="33" width="35.28515625" customWidth="true"/>
-    <col min="34" max="34" width="35.28515625" customWidth="true"/>
-    <col min="35" max="35" width="35.28515625" customWidth="true"/>
-    <col min="36" max="36" width="35.28515625" customWidth="true"/>
-    <col min="37" max="37" width="35.28515625" customWidth="true"/>
-    <col min="38" max="38" width="35.28515625" customWidth="true"/>
-    <col min="39" max="39" width="19.7109375" customWidth="true"/>
-    <col min="40" max="40" width="19.7109375" customWidth="true"/>
-    <col min="41" max="41" width="19.7109375" customWidth="true"/>
-    <col min="42" max="42" width="19.7109375" customWidth="true"/>
-    <col min="43" max="43" width="19.7109375" customWidth="true"/>
-    <col min="44" max="44" width="19.7109375" customWidth="true"/>
-    <col min="45" max="45" width="19.7109375" customWidth="true"/>
-    <col min="46" max="46" width="19.7109375" customWidth="true"/>
-    <col min="47" max="47" width="19.7109375" customWidth="true"/>
-    <col min="48" max="48" width="20.28515625" customWidth="true"/>
-    <col min="49" max="49" width="20.28515625" customWidth="true"/>
-    <col min="50" max="50" width="20.28515625" customWidth="true"/>
-    <col min="51" max="51" width="20.28515625" customWidth="true"/>
-    <col min="52" max="52" width="20.28515625" customWidth="true"/>
-    <col min="53" max="53" width="20.28515625" customWidth="true"/>
-    <col min="54" max="54" width="20.28515625" customWidth="true"/>
-    <col min="55" max="55" width="20.28515625" customWidth="true"/>
-    <col min="56" max="56" width="20.28515625" customWidth="true"/>
-    <col min="57" max="57" width="20.28515625" customWidth="true"/>
+    <col min="1" max="1" width="41.7109375" customWidth="true"/>
+    <col min="2" max="2" width="41.7109375" customWidth="true"/>
+    <col min="3" max="3" width="41.7109375" customWidth="true"/>
+    <col min="4" max="4" width="41.7109375" customWidth="true"/>
+    <col min="5" max="5" width="41.7109375" customWidth="true"/>
+    <col min="6" max="6" width="41.7109375" customWidth="true"/>
+    <col min="7" max="7" width="41.7109375" customWidth="true"/>
+    <col min="8" max="8" width="41.7109375" customWidth="true"/>
+    <col min="9" max="9" width="41.7109375" customWidth="true"/>
+    <col min="10" max="10" width="42.28515625" customWidth="true"/>
+    <col min="11" max="11" width="35.7109375" customWidth="true"/>
+    <col min="12" max="12" width="35.7109375" customWidth="true"/>
+    <col min="13" max="13" width="35.7109375" customWidth="true"/>
+    <col min="14" max="14" width="35.7109375" customWidth="true"/>
+    <col min="15" max="15" width="35.7109375" customWidth="true"/>
+    <col min="16" max="16" width="35.7109375" customWidth="true"/>
+    <col min="17" max="17" width="35.7109375" customWidth="true"/>
+    <col min="18" max="18" width="35.7109375" customWidth="true"/>
+    <col min="19" max="19" width="35.7109375" customWidth="true"/>
+    <col min="20" max="20" width="36.28515625" customWidth="true"/>
+    <col min="21" max="21" width="34.28515625" customWidth="true"/>
+    <col min="22" max="22" width="34.28515625" customWidth="true"/>
+    <col min="23" max="23" width="34.28515625" customWidth="true"/>
+    <col min="24" max="24" width="34.28515625" customWidth="true"/>
+    <col min="25" max="25" width="34.28515625" customWidth="true"/>
+    <col min="26" max="26" width="34.28515625" customWidth="true"/>
+    <col min="27" max="27" width="34.28515625" customWidth="true"/>
+    <col min="28" max="28" width="34.28515625" customWidth="true"/>
+    <col min="29" max="29" width="34.28515625" customWidth="true"/>
+    <col min="30" max="30" width="34.85546875" customWidth="true"/>
+    <col min="31" max="31" width="41.140625" customWidth="true"/>
+    <col min="32" max="32" width="41.140625" customWidth="true"/>
+    <col min="33" max="33" width="41.140625" customWidth="true"/>
+    <col min="34" max="34" width="41.140625" customWidth="true"/>
+    <col min="35" max="35" width="41.140625" customWidth="true"/>
+    <col min="36" max="36" width="41.140625" customWidth="true"/>
+    <col min="37" max="37" width="41.140625" customWidth="true"/>
+    <col min="38" max="38" width="41.140625" customWidth="true"/>
+    <col min="39" max="39" width="41.140625" customWidth="true"/>
+    <col min="40" max="40" width="41.7109375" customWidth="true"/>
+    <col min="41" max="41" width="34.42578125" customWidth="true"/>
+    <col min="42" max="42" width="34.42578125" customWidth="true"/>
+    <col min="43" max="43" width="34.42578125" customWidth="true"/>
+    <col min="44" max="44" width="34.42578125" customWidth="true"/>
+    <col min="45" max="45" width="34.42578125" customWidth="true"/>
+    <col min="46" max="46" width="34.42578125" customWidth="true"/>
+    <col min="47" max="47" width="34.42578125" customWidth="true"/>
+    <col min="48" max="48" width="34.42578125" customWidth="true"/>
+    <col min="49" max="49" width="34.42578125" customWidth="true"/>
+    <col min="50" max="50" width="35" customWidth="true"/>
+    <col min="51" max="51" width="33" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="33" customWidth="true"/>
+    <col min="54" max="54" width="33" customWidth="true"/>
+    <col min="55" max="55" width="33" customWidth="true"/>
+    <col min="56" max="56" width="33" customWidth="true"/>
+    <col min="57" max="57" width="33" customWidth="true"/>
+    <col min="58" max="58" width="33" customWidth="true"/>
+    <col min="59" max="59" width="33" customWidth="true"/>
+    <col min="60" max="60" width="33.5703125" customWidth="true"/>
+    <col min="61" max="61" width="39.85546875" customWidth="true"/>
+    <col min="62" max="62" width="39.85546875" customWidth="true"/>
+    <col min="63" max="63" width="39.85546875" customWidth="true"/>
+    <col min="64" max="64" width="39.85546875" customWidth="true"/>
+    <col min="65" max="65" width="39.85546875" customWidth="true"/>
+    <col min="66" max="66" width="39.85546875" customWidth="true"/>
+    <col min="67" max="67" width="39.85546875" customWidth="true"/>
+    <col min="68" max="68" width="39.85546875" customWidth="true"/>
+    <col min="69" max="69" width="39.85546875" customWidth="true"/>
+    <col min="70" max="70" width="40.42578125" customWidth="true"/>
+    <col min="71" max="71" width="34.7109375" customWidth="true"/>
+    <col min="72" max="72" width="34.7109375" customWidth="true"/>
+    <col min="73" max="73" width="34.7109375" customWidth="true"/>
+    <col min="74" max="74" width="34.7109375" customWidth="true"/>
+    <col min="75" max="75" width="34.7109375" customWidth="true"/>
+    <col min="76" max="76" width="34.7109375" customWidth="true"/>
+    <col min="77" max="77" width="34.7109375" customWidth="true"/>
+    <col min="78" max="78" width="34.7109375" customWidth="true"/>
+    <col min="79" max="79" width="34.7109375" customWidth="true"/>
+    <col min="80" max="80" width="35.28515625" customWidth="true"/>
+    <col min="81" max="81" width="33.42578125" customWidth="true"/>
+    <col min="82" max="82" width="33.42578125" customWidth="true"/>
+    <col min="83" max="83" width="33.42578125" customWidth="true"/>
+    <col min="84" max="84" width="33.42578125" customWidth="true"/>
+    <col min="85" max="85" width="33.42578125" customWidth="true"/>
+    <col min="86" max="86" width="33.42578125" customWidth="true"/>
+    <col min="87" max="87" width="33.42578125" customWidth="true"/>
+    <col min="88" max="88" width="33.42578125" customWidth="true"/>
+    <col min="89" max="89" width="33.42578125" customWidth="true"/>
+    <col min="90" max="90" width="34" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="T1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="BT1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="BU1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="BV1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="BW1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="BX1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="BY1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="BZ1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="CA1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="CB1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>56</v>
+      <c r="CC1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16237767391887217</v>
+        <v>2.1544346900318838</v>
       </c>
       <c r="C2" s="0">
-        <v>0.26366508987303583</v>
+        <v>4.6415888336127784</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69519279617756058</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0">
-        <v>1.1288378916846888</v>
+        <v>21.544346900318835</v>
       </c>
       <c r="F2" s="0">
-        <v>1.8329807108324356</v>
+        <v>46.415888336127793</v>
       </c>
       <c r="G2" s="0">
-        <v>2.9763514416313175</v>
+        <v>100</v>
       </c>
       <c r="H2" s="0">
-        <v>4.8329302385717519</v>
+        <v>215.44346900318845</v>
       </c>
       <c r="I2" s="0">
-        <v>7.8475997035146108</v>
+        <v>464.15888336127773</v>
       </c>
       <c r="J2" s="0">
-        <v>12.742749857031335</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="0">
-        <v>20.691380811147901</v>
+        <v>37.886380079776202</v>
       </c>
       <c r="L2" s="0">
-        <v>33.59818286283781</v>
+        <v>37.796528137732608</v>
       </c>
       <c r="M2" s="0">
-        <v>54.555947811685201</v>
+        <v>37.149606723417186</v>
       </c>
       <c r="N2" s="0">
-        <v>88.586679041008239</v>
+        <v>36.624684623406978</v>
       </c>
       <c r="O2" s="0">
-        <v>143.8449888287663</v>
+        <v>35.575813731128882</v>
       </c>
       <c r="P2" s="0">
-        <v>233.57214690901213</v>
+        <v>34.765716515923991</v>
       </c>
       <c r="Q2" s="0">
-        <v>379.26901907322497</v>
+        <v>33.750070679544748</v>
       </c>
       <c r="R2" s="0">
-        <v>615.84821106602612</v>
+        <v>33.135082085718857</v>
       </c>
       <c r="S2" s="0">
-        <v>1000</v>
+        <v>32.694250588964834</v>
       </c>
       <c r="T2" s="0">
+        <v>32.350763270597575</v>
+      </c>
+      <c r="U2" s="0">
+        <v>15.230896453564094</v>
+      </c>
+      <c r="V2" s="0">
+        <v>15.438231978707922</v>
+      </c>
+      <c r="W2" s="0">
+        <v>15.343345223361956</v>
+      </c>
+      <c r="X2" s="0">
+        <v>15.611910823234879</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>15.565254628375765</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>15.723149921841795</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>16.141805224634538</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>16.574934614963677</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>16.708729749096776</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>16.730495092720766</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.40201508883912523</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.40845635139952968</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0.4130150108342952</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0.42626744731768273</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0.43752350251249905</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0.45226020049493321</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0.47827470875246991</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0.50022313426250531</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0.51106018483679239</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0.51715920742823707</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>29.876075639820534</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>29.73575148152122</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>29.866167226285363</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>29.752507473805018</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>29.976493434592669</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>29.997336821975516</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>29.925937243826006</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>29.716843562249345</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>29.884150168606148</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>29.913296133859077</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>14.195064701343304</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>14.087269643440299</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>14.237132775010462</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>14.198261165256795</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>14.413344940725613</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>14.497933197443313</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>14.543084038024606</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>14.730644494175337</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>15.378597437087256</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>15.558365683148065</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>0.47513150229219908</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>0.47374856667720655</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>0.47669768494700887</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>0.47721225438754572</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>0.4808215801549594</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>0.48330734436472989</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>0.48596920856756048</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>0.49570017297827496</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>0.51460715296641624</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>0.5201153899431844</v>
+      </c>
+      <c r="BS2" s="0">
         <v>316.5</v>
       </c>
-      <c r="U2" s="0">
+      <c r="BT2" s="0">
+        <v>317</v>
+      </c>
+      <c r="BU2" s="0">
         <v>316.5</v>
       </c>
-      <c r="V2" s="0">
-        <v>316.5</v>
-      </c>
-      <c r="W2" s="0">
-        <v>316.5</v>
-      </c>
-      <c r="X2" s="0">
-        <v>316.5</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>316.5</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>317</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>316</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>315</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>313.5</v>
-      </c>
-      <c r="AD2" s="0">
+      <c r="BV2" s="0">
+        <v>314.5</v>
+      </c>
+      <c r="BW2" s="0">
         <v>312</v>
       </c>
-      <c r="AE2" s="0">
-        <v>310</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>308.5</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>306.5</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>304</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>301.5</v>
-      </c>
-      <c r="AJ2" s="0">
+      <c r="BX2" s="0">
+        <v>309</v>
+      </c>
+      <c r="BY2" s="0">
+        <v>305.5</v>
+      </c>
+      <c r="BZ2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="CA2" s="0">
         <v>300</v>
       </c>
-      <c r="AK2" s="0">
-        <v>299</v>
-      </c>
-      <c r="AL2" s="0">
+      <c r="CB2" s="0">
         <v>298</v>
       </c>
-      <c r="AM2" s="0">
-        <v>38.15645229667706</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>38.176596957068362</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>38.099418512315857</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>37.92771133050384</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>37.86592064682452</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>37.727041991439364</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>37.530616914810452</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>37.159957944537986</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>36.793606422226716</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>36.169508924901713</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>35.553427081590421</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>34.923265211026361</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>34.552222201269167</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>33.954545666857896</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>33.415064279008355</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>32.928262857107612</v>
-      </c>
-      <c r="BC2" s="0">
-        <v>32.636842824062583</v>
-      </c>
-      <c r="BD2" s="0">
-        <v>32.519801850922278</v>
-      </c>
-      <c r="BE2" s="0">
-        <v>32.350763270597575</v>
+      <c r="CC2" s="0">
+        <v>258.5</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>260</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>263.5</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>265</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>267.5</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>Vapour heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -133,205 +133,205 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>4.6415888336127784</v>
       </c>
       <c r="B2" s="0">
-        <v>37.886380079776202</v>
+        <v>36.867567118920668</v>
       </c>
       <c r="C2" s="0">
-        <v>15.230896453564094</v>
+        <v>14.994262466724321</v>
       </c>
       <c r="D2" s="0">
-        <v>0.40201508883912523</v>
+        <v>0.4067060464922615</v>
       </c>
       <c r="E2" s="0">
-        <v>29.876075639820534</v>
+        <v>29.350426913122149</v>
       </c>
       <c r="F2" s="0">
-        <v>14.195064701343304</v>
+        <v>13.937617880319818</v>
       </c>
       <c r="G2" s="0">
-        <v>0.47513150229219908</v>
+        <v>0.4748693407961474</v>
       </c>
       <c r="H2" s="0">
-        <v>316.5</v>
+        <v>313.41174021215892</v>
       </c>
       <c r="I2" s="0">
-        <v>258.5</v>
+        <v>260.32346877109717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.1544346900318838</v>
+        <v>21.544346900318835</v>
       </c>
       <c r="B3" s="0">
-        <v>37.796528137732608</v>
+        <v>35.186676344649726</v>
       </c>
       <c r="C3" s="0">
-        <v>15.438231978707922</v>
+        <v>15.155886408072178</v>
       </c>
       <c r="D3" s="0">
-        <v>0.40845635139952968</v>
+        <v>0.43072799089126501</v>
       </c>
       <c r="E3" s="0">
-        <v>29.73575148152122</v>
+        <v>29.381809933947615</v>
       </c>
       <c r="F3" s="0">
-        <v>14.087269643440299</v>
+        <v>14.049265850219422</v>
       </c>
       <c r="G3" s="0">
-        <v>0.47374856667720655</v>
+        <v>0.47816202888124199</v>
       </c>
       <c r="H3" s="0">
-        <v>317</v>
+        <v>308.49460643860112</v>
       </c>
       <c r="I3" s="0">
-        <v>260</v>
+        <v>264.48222966359452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.6415888336127784</v>
+        <v>46.415888336127793</v>
       </c>
       <c r="B4" s="0">
-        <v>37.149606723417186</v>
+        <v>34.340446719147252</v>
       </c>
       <c r="C4" s="0">
-        <v>15.343345223361956</v>
+        <v>15.306810621438027</v>
       </c>
       <c r="D4" s="0">
-        <v>0.4130150108342952</v>
+        <v>0.44573708509456827</v>
       </c>
       <c r="E4" s="0">
-        <v>29.866167226285363</v>
+        <v>29.404460072746453</v>
       </c>
       <c r="F4" s="0">
-        <v>14.237132775010462</v>
+        <v>14.125345301134514</v>
       </c>
       <c r="G4" s="0">
-        <v>0.47669768494700887</v>
+        <v>0.48038104648711444</v>
       </c>
       <c r="H4" s="0">
-        <v>316.5</v>
+        <v>305.54084558697622</v>
       </c>
       <c r="I4" s="0">
-        <v>263.5</v>
+        <v>265.57305741133626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0">
-        <v>36.624684623406978</v>
+        <v>33.452744460163061</v>
       </c>
       <c r="C5" s="0">
-        <v>15.611910823234879</v>
+        <v>15.942667425560048</v>
       </c>
       <c r="D5" s="0">
-        <v>0.42626744731768273</v>
+        <v>0.47657277998656428</v>
       </c>
       <c r="E5" s="0">
-        <v>29.752507473805018</v>
+        <v>29.411377177252668</v>
       </c>
       <c r="F5" s="0">
-        <v>14.198261165256795</v>
+        <v>14.276196280988394</v>
       </c>
       <c r="G5" s="0">
-        <v>0.47721225438754572</v>
+        <v>0.48539706913248126</v>
       </c>
       <c r="H5" s="0">
-        <v>314.5</v>
+        <v>302.53282472726147</v>
       </c>
       <c r="I5" s="0">
-        <v>265</v>
+        <v>266.05004223060456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>21.544346900318835</v>
+        <v>215.44346900318845</v>
       </c>
       <c r="B6" s="0">
-        <v>35.575813731128882</v>
+        <v>32.746488191251572</v>
       </c>
       <c r="C6" s="0">
-        <v>15.565254628375765</v>
+        <v>16.335831770501741</v>
       </c>
       <c r="D6" s="0">
-        <v>0.43752350251249905</v>
+        <v>0.4988575164180799</v>
       </c>
       <c r="E6" s="0">
-        <v>29.976493434592669</v>
+        <v>29.345879987114692</v>
       </c>
       <c r="F6" s="0">
-        <v>14.413344940725613</v>
+        <v>14.617494694921566</v>
       </c>
       <c r="G6" s="0">
-        <v>0.4808215801549594</v>
+        <v>0.49811062750000595</v>
       </c>
       <c r="H6" s="0">
-        <v>312</v>
+        <v>299.05571782682176</v>
       </c>
       <c r="I6" s="0">
-        <v>267.5</v>
+        <v>266.04164598361837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>46.415888336127793</v>
+        <v>464.15888336127773</v>
       </c>
       <c r="B7" s="0">
-        <v>34.765716515923991</v>
+        <v>32.321325894490151</v>
       </c>
       <c r="C7" s="0">
-        <v>15.723149921841795</v>
+        <v>16.554368347829623</v>
       </c>
       <c r="D7" s="0">
-        <v>0.45226020049493321</v>
+        <v>0.51218097926643735</v>
       </c>
       <c r="E7" s="0">
-        <v>29.997336821975516</v>
+        <v>29.34251270212696</v>
       </c>
       <c r="F7" s="0">
-        <v>14.497933197443313</v>
+        <v>15.064517421919252</v>
       </c>
       <c r="G7" s="0">
-        <v>0.48330734436472989</v>
+        <v>0.51340243335149904</v>
       </c>
       <c r="H7" s="0">
-        <v>309</v>
+        <v>298.5</v>
       </c>
       <c r="I7" s="0">
-        <v>268.5</v>
+        <v>265.38377728425803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="0">
-        <v>33.750070679544748</v>
+        <v>32.10443139994323</v>
       </c>
       <c r="C8" s="0">
-        <v>16.141805224634538</v>
+        <v>16.654438823345153</v>
       </c>
       <c r="D8" s="0">
-        <v>0.47827470875246991</v>
+        <v>0.51875825539070608</v>
       </c>
       <c r="E8" s="0">
-        <v>29.925937243826006</v>
+        <v>29.276288701976121</v>
       </c>
       <c r="F8" s="0">
-        <v>14.543084038024606</v>
+        <v>15.188404964912706</v>
       </c>
       <c r="G8" s="0">
-        <v>0.48596920856756048</v>
+        <v>0.51879543611303114</v>
       </c>
       <c r="H8" s="0">
-        <v>305.5</v>
+        <v>297.0562296964564</v>
       </c>
       <c r="I8" s="0">
-        <v>269</v>
+        <v>264.6172337849269</v>
       </c>
     </row>
     <row r="9">

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
   <si>
     <t>Vapour heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="35.46484375" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,234 +133,234 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>4.6415888336127784</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>36.867567118920668</v>
+        <v>37.4453991132509</v>
       </c>
       <c r="C2" s="0">
-        <v>14.994262466724321</v>
+        <v>14.868633953160369</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4067060464922615</v>
+        <v>0.39707505608876703</v>
       </c>
       <c r="E2" s="0">
-        <v>29.350426913122149</v>
+        <v>29.07052973703054</v>
       </c>
       <c r="F2" s="0">
-        <v>13.937617880319818</v>
+        <v>13.82896432327888</v>
       </c>
       <c r="G2" s="0">
-        <v>0.4748693407961474</v>
+        <v>0.47570389835942023</v>
       </c>
       <c r="H2" s="0">
-        <v>313.41174021215892</v>
+        <v>314.02079144751718</v>
       </c>
       <c r="I2" s="0">
-        <v>260.32346877109717</v>
+        <v>255.43558631247458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>21.544346900318835</v>
+        <v>2.1544346900318838</v>
       </c>
       <c r="B3" s="0">
-        <v>35.186676344649726</v>
+        <v>37.250944178080012</v>
       </c>
       <c r="C3" s="0">
-        <v>15.155886408072178</v>
+        <v>14.931566200230236</v>
       </c>
       <c r="D3" s="0">
-        <v>0.43072799089126501</v>
+        <v>0.40083725472431336</v>
       </c>
       <c r="E3" s="0">
-        <v>29.381809933947615</v>
+        <v>29.117566254871939</v>
       </c>
       <c r="F3" s="0">
-        <v>14.049265850219422</v>
+        <v>13.877074877303377</v>
       </c>
       <c r="G3" s="0">
-        <v>0.47816202888124199</v>
+        <v>0.47658773249915659</v>
       </c>
       <c r="H3" s="0">
-        <v>308.49460643860112</v>
+        <v>313.9240206134744</v>
       </c>
       <c r="I3" s="0">
-        <v>264.48222966359452</v>
+        <v>256.88553534799394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>46.415888336127793</v>
+        <v>4.6415888336127784</v>
       </c>
       <c r="B4" s="0">
-        <v>34.340446719147252</v>
+        <v>36.76327830524324</v>
       </c>
       <c r="C4" s="0">
-        <v>15.306810621438027</v>
+        <v>14.95484147803341</v>
       </c>
       <c r="D4" s="0">
-        <v>0.44573708509456827</v>
+        <v>0.40678748380011925</v>
       </c>
       <c r="E4" s="0">
-        <v>29.404460072746453</v>
+        <v>29.177957701799443</v>
       </c>
       <c r="F4" s="0">
-        <v>14.125345301134514</v>
+        <v>13.916635813836349</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48038104648711444</v>
+        <v>0.47695715910158071</v>
       </c>
       <c r="H4" s="0">
-        <v>305.54084558697622</v>
+        <v>313</v>
       </c>
       <c r="I4" s="0">
-        <v>265.57305741133626</v>
+        <v>259.08775129751871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>33.452744460163061</v>
+        <v>36.065473189045449</v>
       </c>
       <c r="C5" s="0">
-        <v>15.942667425560048</v>
+        <v>15.066550554206382</v>
       </c>
       <c r="D5" s="0">
-        <v>0.47657277998656428</v>
+        <v>0.41775552133287153</v>
       </c>
       <c r="E5" s="0">
-        <v>29.411377177252668</v>
+        <v>29.22685199842212</v>
       </c>
       <c r="F5" s="0">
-        <v>14.276196280988394</v>
+        <v>14.009800980086801</v>
       </c>
       <c r="G5" s="0">
-        <v>0.48539706913248126</v>
+        <v>0.47934690266482183</v>
       </c>
       <c r="H5" s="0">
-        <v>302.53282472726147</v>
+        <v>310.95127752693668</v>
       </c>
       <c r="I5" s="0">
-        <v>266.05004223060456</v>
+        <v>260.53999269236829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>215.44346900318845</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0">
-        <v>32.746488191251572</v>
+        <v>33.414252613680191</v>
       </c>
       <c r="C6" s="0">
-        <v>16.335831770501741</v>
+        <v>15.925762294016346</v>
       </c>
       <c r="D6" s="0">
-        <v>0.4988575164180799</v>
+        <v>0.47661584648151462</v>
       </c>
       <c r="E6" s="0">
-        <v>29.345879987114692</v>
+        <v>29.341386922025869</v>
       </c>
       <c r="F6" s="0">
-        <v>14.617494694921566</v>
+        <v>14.214754095703096</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49811062750000595</v>
+        <v>0.48446087887660227</v>
       </c>
       <c r="H6" s="0">
-        <v>299.05571782682176</v>
+        <v>301.98334162269981</v>
       </c>
       <c r="I6" s="0">
-        <v>266.04164598361837</v>
+        <v>265.09932185535109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>464.15888336127773</v>
+        <v>215.44346900318845</v>
       </c>
       <c r="B7" s="0">
-        <v>32.321325894490151</v>
+        <v>32.704007773784873</v>
       </c>
       <c r="C7" s="0">
-        <v>16.554368347829623</v>
+        <v>16.300888231643039</v>
       </c>
       <c r="D7" s="0">
-        <v>0.51218097926643735</v>
+        <v>0.49843702167627385</v>
       </c>
       <c r="E7" s="0">
-        <v>29.34251270212696</v>
+        <v>29.330185663797955</v>
       </c>
       <c r="F7" s="0">
-        <v>15.064517421919252</v>
+        <v>14.580436102564278</v>
       </c>
       <c r="G7" s="0">
-        <v>0.51340243335149904</v>
+        <v>0.497113665412654</v>
       </c>
       <c r="H7" s="0">
-        <v>298.5</v>
+        <v>298.44314202898744</v>
       </c>
       <c r="I7" s="0">
-        <v>265.38377728425803</v>
+        <v>264.85367534626471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1000</v>
+        <v>464.15888336127773</v>
       </c>
       <c r="B8" s="0">
-        <v>32.10443139994323</v>
+        <v>32.327622750169787</v>
       </c>
       <c r="C8" s="0">
-        <v>16.654438823345153</v>
+        <v>16.572846174297876</v>
       </c>
       <c r="D8" s="0">
-        <v>0.51875825539070608</v>
+        <v>0.5126527954862018</v>
       </c>
       <c r="E8" s="0">
-        <v>29.276288701976121</v>
+        <v>29.314310655635822</v>
       </c>
       <c r="F8" s="0">
-        <v>15.188404964912706</v>
+        <v>15.012503657737616</v>
       </c>
       <c r="G8" s="0">
-        <v>0.51879543611303114</v>
+        <v>0.51212200873812419</v>
       </c>
       <c r="H8" s="0">
-        <v>297.0562296964564</v>
+        <v>298.40999973251263</v>
       </c>
       <c r="I8" s="0">
-        <v>264.6172337849269</v>
+        <v>264.9499879435906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>215.44346900318845</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="0">
-        <v>33.135082085718857</v>
+        <v>32.134403572951022</v>
       </c>
       <c r="C9" s="0">
-        <v>16.574934614963677</v>
+        <v>16.682438245893849</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50022313426250531</v>
+        <v>0.51914572517338431</v>
       </c>
       <c r="E9" s="0">
-        <v>29.716843562249345</v>
+        <v>29.258112711767268</v>
       </c>
       <c r="F9" s="0">
-        <v>14.730644494175337</v>
+        <v>15.144681537281901</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49570017297827496</v>
+        <v>0.51762332336599715</v>
       </c>
       <c r="H9" s="0">
-        <v>302.5</v>
+        <v>296.96856446492023</v>
       </c>
       <c r="I9" s="0">
-        <v>268.5</v>
+        <v>264.55243863569945</v>
       </c>
     </row>
     <row r="10">

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
   <si>
     <t>Vapour heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>37.4453991132509</v>
+        <v>35.717821280013311</v>
       </c>
       <c r="C2" s="0">
-        <v>14.868633953160369</v>
+        <v>14.405310667276703</v>
       </c>
       <c r="D2" s="0">
-        <v>0.39707505608876703</v>
+        <v>0.40330877279285537</v>
       </c>
       <c r="E2" s="0">
-        <v>29.07052973703054</v>
+        <v>28.746773449236471</v>
       </c>
       <c r="F2" s="0">
-        <v>13.82896432327888</v>
+        <v>13.647164652782772</v>
       </c>
       <c r="G2" s="0">
-        <v>0.47570389835942023</v>
+        <v>0.47473726666688737</v>
       </c>
       <c r="H2" s="0">
-        <v>314.02079144751718</v>
+        <v>206</v>
       </c>
       <c r="I2" s="0">
-        <v>255.43558631247458</v>
+        <v>140.93914372827749</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>2.1544346900318838</v>
       </c>
       <c r="B3" s="0">
-        <v>37.250944178080012</v>
+        <v>35.679304065674593</v>
       </c>
       <c r="C3" s="0">
-        <v>14.931566200230236</v>
+        <v>14.453516023130094</v>
       </c>
       <c r="D3" s="0">
-        <v>0.40083725472431336</v>
+        <v>0.40509523382310453</v>
       </c>
       <c r="E3" s="0">
-        <v>29.117566254871939</v>
+        <v>28.734482322126027</v>
       </c>
       <c r="F3" s="0">
-        <v>13.877074877303377</v>
+        <v>13.654838072666722</v>
       </c>
       <c r="G3" s="0">
-        <v>0.47658773249915659</v>
+        <v>0.4752073804424265</v>
       </c>
       <c r="H3" s="0">
-        <v>313.9240206134744</v>
+        <v>205.97487816702662</v>
       </c>
       <c r="I3" s="0">
-        <v>256.88553534799394</v>
+        <v>142.08084001455023</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>4.6415888336127784</v>
       </c>
       <c r="B4" s="0">
-        <v>36.76327830524324</v>
+        <v>35.521407578131971</v>
       </c>
       <c r="C4" s="0">
-        <v>14.95484147803341</v>
+        <v>14.488900488850776</v>
       </c>
       <c r="D4" s="0">
-        <v>0.40678748380011925</v>
+        <v>0.40789207063321925</v>
       </c>
       <c r="E4" s="0">
-        <v>29.177957701799443</v>
+        <v>28.773016824665284</v>
       </c>
       <c r="F4" s="0">
-        <v>13.916635813836349</v>
+        <v>13.663639244440013</v>
       </c>
       <c r="G4" s="0">
-        <v>0.47695715910158071</v>
+        <v>0.47487683782699636</v>
       </c>
       <c r="H4" s="0">
-        <v>313</v>
+        <v>206.00257692088826</v>
       </c>
       <c r="I4" s="0">
-        <v>259.08775129751871</v>
+        <v>143.49756140599857</v>
       </c>
     </row>
     <row r="5">
@@ -223,115 +223,115 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>36.065473189045449</v>
+        <v>35.211819470034307</v>
       </c>
       <c r="C5" s="0">
-        <v>15.066550554206382</v>
+        <v>14.551215110951917</v>
       </c>
       <c r="D5" s="0">
-        <v>0.41775552133287153</v>
+        <v>0.41324803233570989</v>
       </c>
       <c r="E5" s="0">
-        <v>29.22685199842212</v>
+        <v>28.771927295997557</v>
       </c>
       <c r="F5" s="0">
-        <v>14.009800980086801</v>
+        <v>13.684881480663059</v>
       </c>
       <c r="G5" s="0">
-        <v>0.47934690266482183</v>
+        <v>0.47563311765238447</v>
       </c>
       <c r="H5" s="0">
-        <v>310.95127752693668</v>
+        <v>205.52583401282001</v>
       </c>
       <c r="I5" s="0">
-        <v>260.53999269236829</v>
+        <v>145.04127143357596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>100</v>
+        <v>21.544346900318835</v>
       </c>
       <c r="B6" s="0">
-        <v>33.414252613680191</v>
+        <v>34.642902154331374</v>
       </c>
       <c r="C6" s="0">
-        <v>15.925762294016346</v>
+        <v>14.628702302767769</v>
       </c>
       <c r="D6" s="0">
-        <v>0.47661584648151462</v>
+        <v>0.42227127039178369</v>
       </c>
       <c r="E6" s="0">
-        <v>29.341386922025869</v>
+        <v>28.79995696735935</v>
       </c>
       <c r="F6" s="0">
-        <v>14.214754095703096</v>
+        <v>13.799054656938976</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48446087887660227</v>
+        <v>0.4791345581723695</v>
       </c>
       <c r="H6" s="0">
-        <v>301.98334162269981</v>
+        <v>204.0417091718875</v>
       </c>
       <c r="I6" s="0">
-        <v>265.09932185535109</v>
+        <v>146.41652605411502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>215.44346900318845</v>
+        <v>46.415888336127793</v>
       </c>
       <c r="B7" s="0">
-        <v>32.704007773784873</v>
+        <v>33.90988892252183</v>
       </c>
       <c r="C7" s="0">
-        <v>16.300888231643039</v>
+        <v>14.758116548218799</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49843702167627385</v>
+        <v>0.43521571485941807</v>
       </c>
       <c r="E7" s="0">
-        <v>29.330185663797955</v>
+        <v>28.806866264576122</v>
       </c>
       <c r="F7" s="0">
-        <v>14.580436102564278</v>
+        <v>13.879943084539786</v>
       </c>
       <c r="G7" s="0">
-        <v>0.497113665412654</v>
+        <v>0.48182759474979714</v>
       </c>
       <c r="H7" s="0">
-        <v>298.44314202898744</v>
+        <v>201.5500931329272</v>
       </c>
       <c r="I7" s="0">
-        <v>264.85367534626471</v>
+        <v>147.95020007860853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>464.15888336127773</v>
+        <v>215.44346900318845</v>
       </c>
       <c r="B8" s="0">
-        <v>32.327622750169787</v>
+        <v>32.548577279059629</v>
       </c>
       <c r="C8" s="0">
-        <v>16.572846174297876</v>
+        <v>15.920509749346964</v>
       </c>
       <c r="D8" s="0">
-        <v>0.5126527954862018</v>
+        <v>0.48913074180939831</v>
       </c>
       <c r="E8" s="0">
-        <v>29.314310655635822</v>
+        <v>28.694668389348131</v>
       </c>
       <c r="F8" s="0">
-        <v>15.012503657737616</v>
+        <v>14.807583188556737</v>
       </c>
       <c r="G8" s="0">
-        <v>0.51212200873812419</v>
+        <v>0.51603952997949698</v>
       </c>
       <c r="H8" s="0">
-        <v>298.40999973251263</v>
+        <v>194.44397791883134</v>
       </c>
       <c r="I8" s="0">
-        <v>264.9499879435906</v>
+        <v>149.40429699332185</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>1000</v>
       </c>
       <c r="B9" s="0">
-        <v>32.134403572951022</v>
+        <v>31.700324554784256</v>
       </c>
       <c r="C9" s="0">
-        <v>16.682438245893849</v>
+        <v>16.460109445906898</v>
       </c>
       <c r="D9" s="0">
-        <v>0.51914572517338431</v>
+        <v>0.51924103860390025</v>
       </c>
       <c r="E9" s="0">
-        <v>29.258112711767268</v>
+        <v>28.703357354257172</v>
       </c>
       <c r="F9" s="0">
-        <v>15.144681537281901</v>
+        <v>15.302792534843148</v>
       </c>
       <c r="G9" s="0">
-        <v>0.51762332336599715</v>
+        <v>0.53313597939000323</v>
       </c>
       <c r="H9" s="0">
-        <v>296.96856446492023</v>
+        <v>189.04175319938543</v>
       </c>
       <c r="I9" s="0">
-        <v>264.55243863569945</v>
+        <v>149.52560929184051</v>
       </c>
     </row>
     <row r="10">

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="117" uniqueCount="9">
   <si>
     <t>Vapour heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>35.717821280013311</v>
+        <v>39.394233858275541</v>
       </c>
       <c r="C2" s="0">
-        <v>14.405310667276703</v>
+        <v>16.971334732512062</v>
       </c>
       <c r="D2" s="0">
-        <v>0.40330877279285537</v>
+        <v>0.43080758452031415</v>
       </c>
       <c r="E2" s="0">
-        <v>28.746773449236471</v>
+        <v>31.241294025730141</v>
       </c>
       <c r="F2" s="0">
-        <v>13.647164652782772</v>
+        <v>15.03950385183974</v>
       </c>
       <c r="G2" s="0">
-        <v>0.47473726666688737</v>
+        <v>0.48139823656002517</v>
       </c>
       <c r="H2" s="0">
-        <v>206</v>
+        <v>337</v>
       </c>
       <c r="I2" s="0">
-        <v>140.93914372827749</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>2.1544346900318838</v>
       </c>
       <c r="B3" s="0">
-        <v>35.679304065674593</v>
+        <v>39.510549961738015</v>
       </c>
       <c r="C3" s="0">
-        <v>14.453516023130094</v>
+        <v>17.201757596347814</v>
       </c>
       <c r="D3" s="0">
-        <v>0.40509523382310453</v>
+        <v>0.4353712518050491</v>
       </c>
       <c r="E3" s="0">
-        <v>28.734482322126027</v>
+        <v>31.201811060986685</v>
       </c>
       <c r="F3" s="0">
-        <v>13.654838072666722</v>
+        <v>14.993207436862185</v>
       </c>
       <c r="G3" s="0">
-        <v>0.4752073804424265</v>
+        <v>0.48052362754061428</v>
       </c>
       <c r="H3" s="0">
-        <v>205.97487816702662</v>
+        <v>338</v>
       </c>
       <c r="I3" s="0">
-        <v>142.08084001455023</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>4.6415888336127784</v>
       </c>
       <c r="B4" s="0">
-        <v>35.521407578131971</v>
+        <v>38.651489689989923</v>
       </c>
       <c r="C4" s="0">
-        <v>14.488900488850776</v>
+        <v>16.793424175249609</v>
       </c>
       <c r="D4" s="0">
-        <v>0.40789207063321925</v>
+        <v>0.43448323233965336</v>
       </c>
       <c r="E4" s="0">
-        <v>28.773016824665284</v>
+        <v>31.12756186497748</v>
       </c>
       <c r="F4" s="0">
-        <v>13.663639244440013</v>
+        <v>14.963202254557777</v>
       </c>
       <c r="G4" s="0">
-        <v>0.47487683782699636</v>
+        <v>0.48070588758168392</v>
       </c>
       <c r="H4" s="0">
-        <v>206.00257692088826</v>
+        <v>338</v>
       </c>
       <c r="I4" s="0">
-        <v>143.49756140599857</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>35.211819470034307</v>
+        <v>38.297000388328868</v>
       </c>
       <c r="C5" s="0">
-        <v>14.551215110951917</v>
+        <v>17.058374877386701</v>
       </c>
       <c r="D5" s="0">
-        <v>0.41324803233570989</v>
+        <v>0.44542326303407548</v>
       </c>
       <c r="E5" s="0">
-        <v>28.771927295997557</v>
+        <v>31.154432445422472</v>
       </c>
       <c r="F5" s="0">
-        <v>13.684881480663059</v>
+        <v>15.046733593707737</v>
       </c>
       <c r="G5" s="0">
-        <v>0.47563311765238447</v>
+        <v>0.48297248297067136</v>
       </c>
       <c r="H5" s="0">
-        <v>205.52583401282001</v>
+        <v>338</v>
       </c>
       <c r="I5" s="0">
-        <v>145.04127143357596</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>21.544346900318835</v>
       </c>
       <c r="B6" s="0">
-        <v>34.642902154331374</v>
+        <v>37.301891788707408</v>
       </c>
       <c r="C6" s="0">
-        <v>14.628702302767769</v>
+        <v>16.886217801432561</v>
       </c>
       <c r="D6" s="0">
-        <v>0.42227127039178369</v>
+        <v>0.45269065432613292</v>
       </c>
       <c r="E6" s="0">
-        <v>28.79995696735935</v>
+        <v>31.457921084067152</v>
       </c>
       <c r="F6" s="0">
-        <v>13.799054656938976</v>
+        <v>15.391452442224441</v>
       </c>
       <c r="G6" s="0">
-        <v>0.4791345581723695</v>
+        <v>0.48927112510368409</v>
       </c>
       <c r="H6" s="0">
-        <v>204.0417091718875</v>
+        <v>337</v>
       </c>
       <c r="I6" s="0">
-        <v>146.41652605411502</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -281,86 +281,86 @@
         <v>46.415888336127793</v>
       </c>
       <c r="B7" s="0">
-        <v>33.90988892252183</v>
+        <v>36.344839643411014</v>
       </c>
       <c r="C7" s="0">
-        <v>14.758116548218799</v>
+        <v>16.892592931589071</v>
       </c>
       <c r="D7" s="0">
-        <v>0.43521571485941807</v>
+        <v>0.46478655834849841</v>
       </c>
       <c r="E7" s="0">
-        <v>28.806866264576122</v>
+        <v>31.435349477204497</v>
       </c>
       <c r="F7" s="0">
-        <v>13.879943084539786</v>
+        <v>15.426879565872495</v>
       </c>
       <c r="G7" s="0">
-        <v>0.48182759474979714</v>
+        <v>0.49074942134997973</v>
       </c>
       <c r="H7" s="0">
-        <v>201.5500931329272</v>
+        <v>335</v>
       </c>
       <c r="I7" s="0">
-        <v>147.95020007860853</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>215.44346900318845</v>
+        <v>100</v>
       </c>
       <c r="B8" s="0">
-        <v>32.548577279059629</v>
+        <v>35.647129788046506</v>
       </c>
       <c r="C8" s="0">
-        <v>15.920509749346964</v>
+        <v>17.283215327643735</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48913074180939831</v>
+        <v>0.48484170900736268</v>
       </c>
       <c r="E8" s="0">
-        <v>28.694668389348131</v>
+        <v>31.361068329034659</v>
       </c>
       <c r="F8" s="0">
-        <v>14.807583188556737</v>
+        <v>15.511728988078012</v>
       </c>
       <c r="G8" s="0">
-        <v>0.51603952997949698</v>
+        <v>0.49461736524189026</v>
       </c>
       <c r="H8" s="0">
-        <v>194.44397791883134</v>
+        <v>333</v>
       </c>
       <c r="I8" s="0">
-        <v>149.40429699332185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1000</v>
+        <v>215.44346900318845</v>
       </c>
       <c r="B9" s="0">
-        <v>31.700324554784256</v>
+        <v>35.090623683909641</v>
       </c>
       <c r="C9" s="0">
-        <v>16.460109445906898</v>
+        <v>17.755629109560097</v>
       </c>
       <c r="D9" s="0">
-        <v>0.51924103860390025</v>
+        <v>0.50599354601103075</v>
       </c>
       <c r="E9" s="0">
-        <v>28.703357354257172</v>
+        <v>31.272535030220084</v>
       </c>
       <c r="F9" s="0">
-        <v>15.302792534843148</v>
+        <v>15.518973710868565</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53313597939000323</v>
+        <v>0.49624930297054171</v>
       </c>
       <c r="H9" s="0">
-        <v>189.04175319938543</v>
+        <v>329</v>
       </c>
       <c r="I9" s="0">
-        <v>149.52560929184051</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>464.15888336127773</v>
       </c>
       <c r="B10" s="0">
-        <v>32.694250588964834</v>
+        <v>34.320898656940066</v>
       </c>
       <c r="C10" s="0">
-        <v>16.708729749096776</v>
+        <v>18.032725118410617</v>
       </c>
       <c r="D10" s="0">
-        <v>0.51106018483679239</v>
+        <v>0.52541529575491464</v>
       </c>
       <c r="E10" s="0">
-        <v>29.884150168606148</v>
+        <v>31.451021757188435</v>
       </c>
       <c r="F10" s="0">
-        <v>15.378597437087256</v>
+        <v>15.783800152319213</v>
       </c>
       <c r="G10" s="0">
-        <v>0.51460715296641624</v>
+        <v>0.50185333481929473</v>
       </c>
       <c r="H10" s="0">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="I10" s="0">
-        <v>268.5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>1000</v>
       </c>
       <c r="B11" s="0">
-        <v>32.350763270597575</v>
+        <v>34.07007370778873</v>
       </c>
       <c r="C11" s="0">
-        <v>16.730495092720766</v>
+        <v>18.101855099797611</v>
       </c>
       <c r="D11" s="0">
-        <v>0.51715920742823707</v>
+        <v>0.53131247249574809</v>
       </c>
       <c r="E11" s="0">
-        <v>29.913296133859077</v>
+        <v>31.060610275086034</v>
       </c>
       <c r="F11" s="0">
-        <v>15.558365683148065</v>
+        <v>16.26793537486088</v>
       </c>
       <c r="G11" s="0">
-        <v>0.5201153899431844</v>
+        <v>0.52374809222307916</v>
       </c>
       <c r="H11" s="0">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="I11" s="0">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="117" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Vapour heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.46484375" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>39.394233858275541</v>
+        <v>33.285905779941892</v>
       </c>
       <c r="C2" s="0">
-        <v>16.971334732512062</v>
+        <v>16.275184844542355</v>
       </c>
       <c r="D2" s="0">
-        <v>0.43080758452031415</v>
+        <v>0.48895123816488695</v>
       </c>
       <c r="E2" s="0">
-        <v>31.241294025730141</v>
+        <v>30.43706377061801</v>
       </c>
       <c r="F2" s="0">
-        <v>15.03950385183974</v>
+        <v>15.354937458636416</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48139823656002517</v>
+        <v>0.50448156150525558</v>
       </c>
       <c r="H2" s="0">
-        <v>337</v>
+        <v>281.5</v>
       </c>
       <c r="I2" s="0">
-        <v>219</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>2.1544346900318838</v>
       </c>
       <c r="B3" s="0">
-        <v>39.510549961738015</v>
+        <v>33.316077996955912</v>
       </c>
       <c r="C3" s="0">
-        <v>17.201757596347814</v>
+        <v>16.303421194807829</v>
       </c>
       <c r="D3" s="0">
-        <v>0.4353712518050491</v>
+        <v>0.48935595589305175</v>
       </c>
       <c r="E3" s="0">
-        <v>31.201811060986685</v>
+        <v>30.501523533415934</v>
       </c>
       <c r="F3" s="0">
-        <v>14.993207436862185</v>
+        <v>15.415012223537902</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48052362754061428</v>
+        <v>0.50538499188901143</v>
       </c>
       <c r="H3" s="0">
-        <v>338</v>
+        <v>281.5</v>
       </c>
       <c r="I3" s="0">
-        <v>220</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>4.6415888336127784</v>
       </c>
       <c r="B4" s="0">
-        <v>38.651489689989923</v>
+        <v>33.341114017191778</v>
       </c>
       <c r="C4" s="0">
-        <v>16.793424175249609</v>
+        <v>16.328640322741769</v>
       </c>
       <c r="D4" s="0">
-        <v>0.43448323233965336</v>
+        <v>0.48974489317670022</v>
       </c>
       <c r="E4" s="0">
-        <v>31.12756186497748</v>
+        <v>30.494467243112851</v>
       </c>
       <c r="F4" s="0">
-        <v>14.963202254557777</v>
+        <v>15.397149174403538</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48070588758168392</v>
+        <v>0.50491615582761062</v>
       </c>
       <c r="H4" s="0">
-        <v>338</v>
+        <v>281.5</v>
       </c>
       <c r="I4" s="0">
-        <v>224</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>38.297000388328868</v>
+        <v>33.361589039801849</v>
       </c>
       <c r="C5" s="0">
-        <v>17.058374877386701</v>
+        <v>16.348184105031642</v>
       </c>
       <c r="D5" s="0">
-        <v>0.44542326303407548</v>
+        <v>0.49003013871813889</v>
       </c>
       <c r="E5" s="0">
-        <v>31.154432445422472</v>
+        <v>30.515752826899742</v>
       </c>
       <c r="F5" s="0">
-        <v>15.046733593707737</v>
+        <v>15.399669414184094</v>
       </c>
       <c r="G5" s="0">
-        <v>0.48297248297067136</v>
+        <v>0.5046465509646294</v>
       </c>
       <c r="H5" s="0">
-        <v>338</v>
+        <v>281.5</v>
       </c>
       <c r="I5" s="0">
-        <v>227</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>21.544346900318835</v>
       </c>
       <c r="B6" s="0">
-        <v>37.301891788707408</v>
+        <v>33.376007316432542</v>
       </c>
       <c r="C6" s="0">
-        <v>16.886217801432561</v>
+        <v>16.307877027489013</v>
       </c>
       <c r="D6" s="0">
-        <v>0.45269065432613292</v>
+        <v>0.48861078177736067</v>
       </c>
       <c r="E6" s="0">
-        <v>31.457921084067152</v>
+        <v>30.545213126406018</v>
       </c>
       <c r="F6" s="0">
-        <v>15.391452442224441</v>
+        <v>15.415925728397664</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48927112510368409</v>
+        <v>0.50469203356354242</v>
       </c>
       <c r="H6" s="0">
-        <v>337</v>
+        <v>281.5</v>
       </c>
       <c r="I6" s="0">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>46.415888336127793</v>
       </c>
       <c r="B7" s="0">
-        <v>36.344839643411014</v>
+        <v>33.389708971335352</v>
       </c>
       <c r="C7" s="0">
-        <v>16.892592931589071</v>
+        <v>16.311471467215917</v>
       </c>
       <c r="D7" s="0">
-        <v>0.46478655834849841</v>
+        <v>0.4885179287192683</v>
       </c>
       <c r="E7" s="0">
-        <v>31.435349477204497</v>
+        <v>30.587524235588717</v>
       </c>
       <c r="F7" s="0">
-        <v>15.426879565872495</v>
+        <v>15.482524661983135</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49074942134997973</v>
+        <v>0.50617122663262659</v>
       </c>
       <c r="H7" s="0">
-        <v>335</v>
+        <v>281.5</v>
       </c>
       <c r="I7" s="0">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>100</v>
       </c>
       <c r="B8" s="0">
-        <v>35.647129788046506</v>
+        <v>33.399523333405867</v>
       </c>
       <c r="C8" s="0">
-        <v>17.283215327643735</v>
+        <v>16.322743477919445</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48484170900736268</v>
+        <v>0.48871186917789339</v>
       </c>
       <c r="E8" s="0">
-        <v>31.361068329034659</v>
+        <v>30.602007772780688</v>
       </c>
       <c r="F8" s="0">
-        <v>15.511728988078012</v>
+        <v>15.494615353011225</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49461736524189026</v>
+        <v>0.50632675699118967</v>
       </c>
       <c r="H8" s="0">
-        <v>333</v>
+        <v>281.5</v>
       </c>
       <c r="I8" s="0">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>215.44346900318845</v>
       </c>
       <c r="B9" s="0">
-        <v>35.090623683909641</v>
+        <v>33.409746698148012</v>
       </c>
       <c r="C9" s="0">
-        <v>17.755629109560097</v>
+        <v>16.329580341143316</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50599354601103075</v>
+        <v>0.48876696039268402</v>
       </c>
       <c r="E9" s="0">
-        <v>31.272535030220084</v>
+        <v>30.592300539390152</v>
       </c>
       <c r="F9" s="0">
-        <v>15.518973710868565</v>
+        <v>15.488203735858297</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49624930297054171</v>
+        <v>0.50627783667056803</v>
       </c>
       <c r="H9" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I9" s="0">
-        <v>237</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>464.15888336127773</v>
       </c>
       <c r="B10" s="0">
-        <v>34.320898656940066</v>
+        <v>33.419073408951213</v>
       </c>
       <c r="C10" s="0">
-        <v>18.032725118410617</v>
+        <v>16.342886520766751</v>
       </c>
       <c r="D10" s="0">
-        <v>0.52541529575491464</v>
+        <v>0.48902871485327748</v>
       </c>
       <c r="E10" s="0">
-        <v>31.451021757188435</v>
+        <v>30.615062913747778</v>
       </c>
       <c r="F10" s="0">
-        <v>15.783800152319213</v>
+        <v>15.476099470649883</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50185333481929473</v>
+        <v>0.50550604825640577</v>
       </c>
       <c r="H10" s="0">
-        <v>325</v>
+        <v>281.5</v>
       </c>
       <c r="I10" s="0">
-        <v>237</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>1000</v>
       </c>
       <c r="B11" s="0">
-        <v>34.07007370778873</v>
+        <v>33.428031668027195</v>
       </c>
       <c r="C11" s="0">
-        <v>18.101855099797611</v>
+        <v>16.348906240676111</v>
       </c>
       <c r="D11" s="0">
-        <v>0.53131247249574809</v>
+        <v>0.48907774178978353</v>
       </c>
       <c r="E11" s="0">
-        <v>31.060610275086034</v>
+        <v>30.61591614602488</v>
       </c>
       <c r="F11" s="0">
-        <v>16.26793537486088</v>
+        <v>15.457927257041952</v>
       </c>
       <c r="G11" s="0">
-        <v>0.52374809222307916</v>
+        <v>0.50489840589170099</v>
       </c>
       <c r="H11" s="0">
-        <v>323</v>
+        <v>281.5</v>
       </c>
       <c r="I11" s="0">
-        <v>235</v>
+        <v>246.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,292 +133,205 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0">
-        <v>33.285905779941892</v>
+        <v>38.12018364751237</v>
       </c>
       <c r="C2" s="0">
-        <v>16.275184844542355</v>
+        <v>15.390481683260695</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48895123816488695</v>
+        <v>0.40373576962725466</v>
       </c>
       <c r="E2" s="0">
-        <v>30.43706377061801</v>
+        <v>30.602687587425969</v>
       </c>
       <c r="F2" s="0">
-        <v>15.354937458636416</v>
+        <v>14.762326935155349</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50448156150525558</v>
+        <v>0.48238661695912266</v>
       </c>
       <c r="H2" s="0">
-        <v>281.5</v>
+        <v>346</v>
       </c>
       <c r="I2" s="0">
-        <v>247.5</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.1544346900318838</v>
+        <v>21.544346900318835</v>
       </c>
       <c r="B3" s="0">
-        <v>33.316077996955912</v>
+        <v>37.377217592809366</v>
       </c>
       <c r="C3" s="0">
-        <v>16.303421194807829</v>
+        <v>15.335990290968983</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48935595589305175</v>
+        <v>0.41030315466604778</v>
       </c>
       <c r="E3" s="0">
-        <v>30.501523533415934</v>
+        <v>30.655388634800275</v>
       </c>
       <c r="F3" s="0">
-        <v>15.415012223537902</v>
+        <v>14.936380444798758</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50538499188901143</v>
+        <v>0.48723507056905629</v>
       </c>
       <c r="H3" s="0">
-        <v>281.5</v>
+        <v>346.5</v>
       </c>
       <c r="I3" s="0">
-        <v>247.5</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.6415888336127784</v>
+        <v>46.415888336127793</v>
       </c>
       <c r="B4" s="0">
-        <v>33.341114017191778</v>
+        <v>36.801171483370574</v>
       </c>
       <c r="C4" s="0">
-        <v>16.328640322741769</v>
+        <v>15.693811453522862</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48974489317670022</v>
+        <v>0.42644869228183291</v>
       </c>
       <c r="E4" s="0">
-        <v>30.494467243112851</v>
+        <v>30.767639757859897</v>
       </c>
       <c r="F4" s="0">
-        <v>15.397149174403538</v>
+        <v>15.162452806108162</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50491615582761062</v>
+        <v>0.49280519810541412</v>
       </c>
       <c r="H4" s="0">
-        <v>281.5</v>
+        <v>345.5</v>
       </c>
       <c r="I4" s="0">
-        <v>247.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0">
-        <v>33.361589039801849</v>
+        <v>36.001170188040653</v>
       </c>
       <c r="C5" s="0">
-        <v>16.348184105031642</v>
+        <v>16.07001562049533</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49003013871813889</v>
+        <v>0.44637481327853284</v>
       </c>
       <c r="E5" s="0">
-        <v>30.515752826899742</v>
+        <v>30.998706460014489</v>
       </c>
       <c r="F5" s="0">
-        <v>15.399669414184094</v>
+        <v>15.507622089663776</v>
       </c>
       <c r="G5" s="0">
-        <v>0.5046465509646294</v>
+        <v>0.50026674853891717</v>
       </c>
       <c r="H5" s="0">
-        <v>281.5</v>
+        <v>342.5</v>
       </c>
       <c r="I5" s="0">
-        <v>247.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>21.544346900318835</v>
+        <v>215.44346900318845</v>
       </c>
       <c r="B6" s="0">
-        <v>33.376007316432542</v>
+        <v>34.994918212617883</v>
       </c>
       <c r="C6" s="0">
-        <v>16.307877027489013</v>
+        <v>16.260652513153243</v>
       </c>
       <c r="D6" s="0">
-        <v>0.48861078177736067</v>
+        <v>0.46465753725608788</v>
       </c>
       <c r="E6" s="0">
-        <v>30.545213126406018</v>
+        <v>30.9482963209852</v>
       </c>
       <c r="F6" s="0">
-        <v>15.415925728397664</v>
+        <v>15.554496131257785</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50469203356354242</v>
+        <v>0.5025962001246157</v>
       </c>
       <c r="H6" s="0">
-        <v>281.5</v>
+        <v>338</v>
       </c>
       <c r="I6" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>46.415888336127793</v>
+        <v>464.15888336127773</v>
       </c>
       <c r="B7" s="0">
-        <v>33.389708971335352</v>
+        <v>34.05334760037352</v>
       </c>
       <c r="C7" s="0">
-        <v>16.311471467215917</v>
+        <v>16.288415286650771</v>
       </c>
       <c r="D7" s="0">
-        <v>0.4885179287192683</v>
+        <v>0.47832053041599082</v>
       </c>
       <c r="E7" s="0">
-        <v>30.587524235588717</v>
+        <v>30.688672841678596</v>
       </c>
       <c r="F7" s="0">
-        <v>15.482524661983135</v>
+        <v>15.38628549375693</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50617122663262659</v>
+        <v>0.50136692365727398</v>
       </c>
       <c r="H7" s="0">
-        <v>281.5</v>
+        <v>333.5</v>
       </c>
       <c r="I7" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="0">
-        <v>33.399523333405867</v>
+        <v>33.672813262443917</v>
       </c>
       <c r="C8" s="0">
-        <v>16.322743477919445</v>
+        <v>16.704420202488706</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48871186917789339</v>
+        <v>0.49608032665092283</v>
       </c>
       <c r="E8" s="0">
-        <v>30.602007772780688</v>
+        <v>30.847449406994301</v>
       </c>
       <c r="F8" s="0">
-        <v>15.494615353011225</v>
+        <v>15.613709713526204</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50632675699118967</v>
+        <v>0.50615885636191293</v>
       </c>
       <c r="H8" s="0">
-        <v>281.5</v>
+        <v>330</v>
       </c>
       <c r="I8" s="0">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>215.44346900318845</v>
-      </c>
-      <c r="B9" s="0">
-        <v>33.409746698148012</v>
-      </c>
-      <c r="C9" s="0">
-        <v>16.329580341143316</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.48876696039268402</v>
-      </c>
-      <c r="E9" s="0">
-        <v>30.592300539390152</v>
-      </c>
-      <c r="F9" s="0">
-        <v>15.488203735858297</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.50627783667056803</v>
-      </c>
-      <c r="H9" s="0">
-        <v>281.5</v>
-      </c>
-      <c r="I9" s="0">
-        <v>246.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>464.15888336127773</v>
-      </c>
-      <c r="B10" s="0">
-        <v>33.419073408951213</v>
-      </c>
-      <c r="C10" s="0">
-        <v>16.342886520766751</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.48902871485327748</v>
-      </c>
-      <c r="E10" s="0">
-        <v>30.615062913747778</v>
-      </c>
-      <c r="F10" s="0">
-        <v>15.476099470649883</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.50550604825640577</v>
-      </c>
-      <c r="H10" s="0">
-        <v>281.5</v>
-      </c>
-      <c r="I10" s="0">
-        <v>246.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="0">
-        <v>33.428031668027195</v>
-      </c>
-      <c r="C11" s="0">
-        <v>16.348906240676111</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.48907774178978353</v>
-      </c>
-      <c r="E11" s="0">
-        <v>30.61591614602488</v>
-      </c>
-      <c r="F11" s="0">
-        <v>15.457927257041952</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.50489840589170099</v>
-      </c>
-      <c r="H11" s="0">
-        <v>281.5</v>
-      </c>
-      <c r="I11" s="0">
-        <v>246.5</v>
+        <v>301.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vapour_heat_sweep_results.xlsx
+++ b/Graphs/vapour_heat_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="35.46484375" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
